--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2415.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2415.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.040832268520753</v>
+        <v>1.309974789619446</v>
       </c>
       <c r="B1">
-        <v>2.121399399947558</v>
+        <v>1.672612547874451</v>
       </c>
       <c r="C1">
-        <v>9.465649550539439</v>
+        <v>4.089252471923828</v>
       </c>
       <c r="D1">
-        <v>1.923160483380857</v>
+        <v>3.246322631835938</v>
       </c>
       <c r="E1">
-        <v>0.9976218051733364</v>
+        <v>1.123023271560669</v>
       </c>
     </row>
   </sheetData>
